--- a/Advance Training/Advance Training Schedule-  API.xlsx
+++ b/Advance Training/Advance Training Schedule-  API.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rkitsoftware-my.sharepoint.com/personal/brijesh_kamani_rkitsoftware_com/Documents/Documents/RKIT Training/Uploades/Github/brijeshkamani11/Advance Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_A65BA5EBC3D377E48165955A2BDE7B7691D72402" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BFFF76-3CCE-4933-8EC2-C0BBB52EC2E3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prog. Guidline" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Work Enviornent" sheetId="9" r:id="rId6"/>
     <sheet name="TFS" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -47,309 +48,333 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Programming Standard</t>
+  </si>
+  <si>
+    <t>Commenting</t>
+  </si>
+  <si>
+    <t>First Phase</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>OOP Concept</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Abstract Class</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Delegate, Event</t>
+  </si>
+  <si>
+    <t>File System in depth</t>
+  </si>
+  <si>
+    <t>Serializing data</t>
+  </si>
+  <si>
+    <t>Base Library features</t>
+  </si>
+  <si>
+    <t>System.Net</t>
+  </si>
+  <si>
+    <t>Threading</t>
+  </si>
+  <si>
+    <t>Reflaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lamda expression</t>
+  </si>
+  <si>
+    <t>Extention methods</t>
+  </si>
+  <si>
+    <t>LinQ in depth</t>
+  </si>
+  <si>
+    <t>ORM Tool</t>
+  </si>
+  <si>
+    <t>cors</t>
+  </si>
+  <si>
+    <t>Second Phase</t>
+  </si>
+  <si>
+    <t>Security &amp; Cryptography</t>
+  </si>
+  <si>
+    <t>dynamic type</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
+    <t>Role of process &amp; app domain</t>
+  </si>
+  <si>
+    <t>Use of backgoundworker</t>
+  </si>
+  <si>
+    <t>ManualResetEvent</t>
+  </si>
+  <si>
+    <t>Database Management</t>
+  </si>
+  <si>
+    <t>Database with C# app</t>
+  </si>
+  <si>
+    <t>jwt</t>
+  </si>
+  <si>
+    <t>caching</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>versoning</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>How to debug in VS</t>
+  </si>
+  <si>
+    <t>Breakpoints</t>
+  </si>
+  <si>
+    <t>Debug Windows</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Locals</t>
+  </si>
+  <si>
+    <t>Autos</t>
+  </si>
+  <si>
+    <t>Call Stacks</t>
+  </si>
+  <si>
+    <t>Immidiate</t>
+  </si>
+  <si>
+    <t>Editing</t>
+  </si>
+  <si>
+    <t>Edit code while debugging</t>
+  </si>
+  <si>
+    <t>Conditional Breakpoints</t>
+  </si>
+  <si>
+    <t>Hit breakpoint on condition</t>
+  </si>
+  <si>
+    <t>Data Inspector</t>
+  </si>
+  <si>
+    <t>Inspect data in visualizer</t>
+  </si>
+  <si>
+    <t>Conditional Compilation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic &amp; </t>
+  </si>
+  <si>
+    <t>HTML/JavaScript</t>
+  </si>
+  <si>
+    <t>Basics</t>
+  </si>
+  <si>
+    <t>Introduction to WEB Dev.</t>
+  </si>
+  <si>
+    <t>ASP.Net Web Forms</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>Rest Web API</t>
+  </si>
+  <si>
+    <t>Start With Project</t>
+  </si>
+  <si>
+    <t>Create New Web API Project</t>
+  </si>
+  <si>
+    <t>Setting up infrastructure</t>
+  </si>
+  <si>
+    <t>Create Controller, Model</t>
+  </si>
+  <si>
+    <t>Parameters (From URI, From Body)</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Building Web API</t>
+  </si>
+  <si>
+    <t>Understanding HTTP Verbs</t>
+  </si>
+  <si>
+    <t>Implement GET, POST, PUT, DELETE</t>
+  </si>
+  <si>
+    <t>Understanding JSON Structure</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>Implement Authentication, Authorization</t>
+  </si>
+  <si>
+    <t>JWT Tocken, Oauth</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>HTTP Caching</t>
+  </si>
+  <si>
+    <t>Versioning</t>
+  </si>
+  <si>
+    <t>Use of POSTMAN, Swagger</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>Publish in IIS</t>
+  </si>
+  <si>
+    <t>Fundamentals</t>
+  </si>
+  <si>
+    <t>What is MySQL?</t>
+  </si>
+  <si>
+    <t>MySQL Workbench Overview</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Intro to database desing</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>InnoDB, MyISAM</t>
+  </si>
+  <si>
+    <t>SQL Basics</t>
+  </si>
+  <si>
+    <t>Create,Select,Insert,Update and delete Operations</t>
+  </si>
+  <si>
+    <t>Data Sorting</t>
+  </si>
+  <si>
+    <t>Orderby, Groupby &amp; Wild card</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Aggregate Functions</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Null Value &amp; Keyword in MySQL</t>
+  </si>
+  <si>
+    <t>Auto Increment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alter, Drop &amp; rename </t>
+  </si>
+  <si>
+    <t>LIMIT keyword</t>
+  </si>
+  <si>
+    <t>Sub-Queries</t>
+  </si>
+  <si>
+    <t>Joins</t>
+  </si>
+  <si>
+    <t>Unions</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Stored-Procedures</t>
+  </si>
+  <si>
+    <t>Partitions</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
     <t>RKIT Running Project Overview</t>
   </si>
   <si>
-    <t>Programming Standard</t>
-  </si>
-  <si>
-    <t>Commenting</t>
-  </si>
-  <si>
-    <t>First Phase</t>
-  </si>
-  <si>
-    <t>Object Oriented Programming</t>
-  </si>
-  <si>
-    <t>OOP Concept</t>
-  </si>
-  <si>
-    <t>Encapsulation</t>
-  </si>
-  <si>
-    <t>Inheritance</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>Abstract Class</t>
-  </si>
-  <si>
-    <t>Generics</t>
-  </si>
-  <si>
-    <t>Delegate, Event</t>
-  </si>
-  <si>
-    <t>File System in depth</t>
-  </si>
-  <si>
-    <t>Serializing data</t>
-  </si>
-  <si>
-    <t>Base Library features</t>
-  </si>
-  <si>
-    <t>System.Net</t>
-  </si>
-  <si>
-    <t>Threading</t>
-  </si>
-  <si>
-    <t>Reflaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lamda expression</t>
-  </si>
-  <si>
-    <t>Extention methods</t>
-  </si>
-  <si>
-    <t>LinQ in depth</t>
-  </si>
-  <si>
-    <t>ORM Tool</t>
-  </si>
-  <si>
-    <t>Second Phase</t>
-  </si>
-  <si>
-    <t>Security &amp; Cryptography</t>
-  </si>
-  <si>
-    <t>dynamic type</t>
-  </si>
-  <si>
-    <t>Multithreading</t>
-  </si>
-  <si>
-    <t>Role of process &amp; app domain</t>
-  </si>
-  <si>
-    <t>Use of backgoundworker</t>
-  </si>
-  <si>
-    <t>ManualResetEvent</t>
-  </si>
-  <si>
-    <t>Database Management</t>
-  </si>
-  <si>
-    <t>Database with C# app</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>How to debug in VS</t>
-  </si>
-  <si>
-    <t>Breakpoints</t>
-  </si>
-  <si>
-    <t>Debug Windows</t>
-  </si>
-  <si>
-    <t>Watch</t>
-  </si>
-  <si>
-    <t>Locals</t>
-  </si>
-  <si>
-    <t>Autos</t>
-  </si>
-  <si>
-    <t>Call Stacks</t>
-  </si>
-  <si>
-    <t>Immidiate</t>
-  </si>
-  <si>
-    <t>Editing</t>
-  </si>
-  <si>
-    <t>Edit code while debugging</t>
-  </si>
-  <si>
-    <t>Conditional Breakpoints</t>
-  </si>
-  <si>
-    <t>Hit breakpoint on condition</t>
-  </si>
-  <si>
-    <t>Data Inspector</t>
-  </si>
-  <si>
-    <t>Inspect data in visualizer</t>
-  </si>
-  <si>
-    <t>Conditional Compilation</t>
-  </si>
-  <si>
-    <t>HTML/JavaScript</t>
-  </si>
-  <si>
-    <t>Basics</t>
-  </si>
-  <si>
-    <t>Introduction to WEB Dev.</t>
-  </si>
-  <si>
-    <t>ASP.Net Web Forms</t>
-  </si>
-  <si>
-    <t>MVC</t>
-  </si>
-  <si>
-    <t>Rest Web API</t>
-  </si>
-  <si>
-    <t>Start With Project</t>
-  </si>
-  <si>
-    <t>Create New Web API Project</t>
-  </si>
-  <si>
-    <t>Setting up infrastructure</t>
-  </si>
-  <si>
-    <t>Create Controller, Model</t>
-  </si>
-  <si>
-    <t>Parameters (From URI, From Body)</t>
-  </si>
-  <si>
-    <t>Serialization</t>
-  </si>
-  <si>
-    <t>Routing</t>
-  </si>
-  <si>
-    <t>Config</t>
-  </si>
-  <si>
-    <t>Building Web API</t>
-  </si>
-  <si>
-    <t>Understanding HTTP Verbs</t>
-  </si>
-  <si>
-    <t>Implement GET, POST, PUT, DELETE</t>
-  </si>
-  <si>
-    <t>Understanding JSON Structure</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>CORS</t>
-  </si>
-  <si>
-    <t>JWT Tocken, Oauth</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>HTTP Caching</t>
-  </si>
-  <si>
-    <t>Versioning</t>
-  </si>
-  <si>
-    <t>Use of POSTMAN, Swagger</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Publish</t>
-  </si>
-  <si>
-    <t>Publish in IIS</t>
-  </si>
-  <si>
-    <t>Fundamentals</t>
-  </si>
-  <si>
-    <t>What is MySQL?</t>
-  </si>
-  <si>
-    <t>MySQL Workbench Overview</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Intro to database desing</t>
-  </si>
-  <si>
-    <t>Normalization</t>
-  </si>
-  <si>
-    <t>InnoDB, MyISAM</t>
-  </si>
-  <si>
-    <t>SQL Basics</t>
-  </si>
-  <si>
-    <t>Create,Select,Insert,Update and delete Operations</t>
-  </si>
-  <si>
-    <t>Data Sorting</t>
-  </si>
-  <si>
-    <t>Orderby, Groupby &amp; Wild card</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>Aggregate Functions</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Null Value &amp; Keyword in MySQL</t>
-  </si>
-  <si>
-    <t>Auto Increment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alter, Drop &amp; rename </t>
-  </si>
-  <si>
-    <t>LIMIT keyword</t>
-  </si>
-  <si>
-    <t>Sub-Queries</t>
-  </si>
-  <si>
-    <t>Joins</t>
-  </si>
-  <si>
-    <t>Unions</t>
-  </si>
-  <si>
-    <t>Views</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Stored-Procedures</t>
-  </si>
-  <si>
-    <t>Partitions</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
     <t>TFS Overview</t>
   </si>
   <si>
@@ -393,18 +418,12 @@
   </si>
   <si>
     <t>Multiple Checkout</t>
-  </si>
-  <si>
-    <t>Implement Authentication, Authorization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic &amp; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -833,25 +852,25 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -862,7 +881,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -876,28 +895,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,8 +923,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -926,11 +941,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,9 +971,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -968,12 +979,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1250,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1258,15 +1268,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" style="28" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="28" customWidth="1"/>
     <col min="3" max="3" width="9" style="28"/>
-    <col min="4" max="4" width="11.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="28" customWidth="1"/>
     <col min="6" max="6" width="9" style="28"/>
-    <col min="7" max="7" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -1287,24 +1297,24 @@
       <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>4</v>
+      <c r="B2" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>5</v>
+      <c r="B3" s="38" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="41"/>
+      <c r="B4" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,254 +1323,278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3" style="41" customWidth="1"/>
-    <col min="2" max="2" width="34" style="41" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="3" style="39" customWidth="1"/>
+    <col min="2" max="2" width="34" style="39" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="63" customFormat="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" s="61" customFormat="1">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="1:3" ht="15.6">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="37"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="44">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="39"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="46">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="44">
+        <v>2</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="46">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="44">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="39"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="46">
-        <v>3</v>
-      </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="37"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="44">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="46">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="C6" s="37"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="44">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="39"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="46">
-        <v>5</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="37"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="44">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="46">
-        <v>6</v>
-      </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="37"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="44">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="39"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="46">
-        <v>7</v>
-      </c>
-      <c r="B9" s="39" t="s">
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="44">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="46">
-        <v>8</v>
-      </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="44">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="39"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="46">
-        <v>9</v>
-      </c>
-      <c r="B11" s="39" t="s">
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="A12" s="44">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="39"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
-      <c r="A12" s="46">
-        <v>10</v>
-      </c>
-      <c r="B12" s="39" t="s">
+      <c r="C12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="39" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="44"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="44">
+        <v>11</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="46">
-        <v>11</v>
-      </c>
-      <c r="B15" s="41" t="s">
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="44">
+        <v>12</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="39"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="46">
-        <v>12</v>
-      </c>
-      <c r="B16" s="39" t="s">
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="44">
+        <v>13</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="39"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="46">
-        <v>13</v>
-      </c>
-      <c r="B17" s="39" t="s">
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="62">
+        <v>14</v>
+      </c>
+      <c r="B18" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="39"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="64">
-        <v>14</v>
-      </c>
-      <c r="B18" s="65" t="s">
+      <c r="C18" s="63"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="62"/>
+      <c r="B19" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="65"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47" t="s">
+      <c r="C19" s="63"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.6">
+      <c r="A20" s="44"/>
+      <c r="B20" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="37"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="46">
+      <c r="A21" s="44">
         <v>15</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="46">
+      <c r="A22" s="44">
         <v>16</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="46">
+      <c r="A23" s="44">
         <v>17</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A26" s="66">
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="64">
         <v>18</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
-      <c r="C28" s="67"/>
+    <row r="27" spans="1:3">
+      <c r="C27" s="39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6">
+      <c r="C28" s="65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1569,106 +1603,106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>35</v>
+      <c r="A2" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="68"/>
+      <c r="A3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>38</v>
+      <c r="A4" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68" t="s">
-        <v>39</v>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="62"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68" t="s">
-        <v>41</v>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68" t="s">
-        <v>42</v>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>44</v>
+      <c r="A9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>46</v>
+      <c r="A10" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>48</v>
+      <c r="A11" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="68"/>
+      <c r="A12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="31"/>
@@ -1681,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1689,209 +1723,209 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="71" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="38.625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="91" t="s">
+      <c r="A1" s="83"/>
+      <c r="B1" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>51</v>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="86">
+      <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>53</v>
+      <c r="B3" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="39" t="s">
-        <v>54</v>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="39" t="s">
-        <v>55</v>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="37" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="70">
+      <c r="A6" s="67">
         <v>2</v>
       </c>
-      <c r="B6" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>57</v>
+      <c r="B6" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="39" t="s">
-        <v>58</v>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="37" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="39" t="s">
-        <v>59</v>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="39" t="s">
-        <v>60</v>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="39" t="s">
-        <v>61</v>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="39" t="s">
-        <v>62</v>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="37" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="39" t="s">
-        <v>63</v>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="70">
+      <c r="A13" s="67">
         <v>3</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>65</v>
+      <c r="B13" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="39" t="s">
-        <v>66</v>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="37" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="39" t="s">
-        <v>67</v>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="37" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="70">
+      <c r="A16" s="67">
         <v>4</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>69</v>
+      <c r="B16" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="39" t="s">
-        <v>119</v>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="37" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="39" t="s">
-        <v>70</v>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="37" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="70">
+      <c r="A19" s="67">
         <v>5</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>72</v>
+      <c r="B19" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="39" t="s">
-        <v>73</v>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="39" t="s">
-        <v>74</v>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="70">
+      <c r="A22" s="67">
         <v>6</v>
       </c>
-      <c r="B22" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>76</v>
+      <c r="B22" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="40"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,7 +1934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1908,319 +1942,319 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="3" style="82" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" style="82" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="82" customWidth="1"/>
-    <col min="6" max="6" width="9" style="82"/>
+    <col min="2" max="2" width="23.625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="3" style="39" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="39" customWidth="1"/>
+    <col min="6" max="6" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-    </row>
-    <row r="3" spans="1:6" s="49" customFormat="1">
-      <c r="A3" s="48">
+      <c r="A2" s="34"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="3" spans="1:6" s="47" customFormat="1">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="37">
+        <v>1</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="1:6" s="47" customFormat="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="37">
+        <v>2</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+    </row>
+    <row r="5" spans="1:6" s="47" customFormat="1">
+      <c r="A5" s="46">
+        <v>2</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6" s="47" customFormat="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="37">
+        <v>2</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" s="47" customFormat="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="37">
+        <v>3</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" s="49" customFormat="1">
+      <c r="A8" s="48">
+        <v>3</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:6" s="47" customFormat="1">
+      <c r="A9" s="46">
+        <v>4</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="37">
+        <v>1</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:6" s="47" customFormat="1">
+      <c r="A10" s="46">
+        <v>5</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="37">
+        <v>1</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" s="51" customFormat="1">
+      <c r="A11" s="50">
+        <v>6</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="37">
+        <v>1</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:6" s="51" customFormat="1">
+      <c r="A12" s="50"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="37">
+        <v>2</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:6" s="51" customFormat="1">
+      <c r="A13" s="50"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="37">
+        <v>3</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:6" s="53" customFormat="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="37">
+        <v>4</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:6" s="53" customFormat="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="37">
+        <v>5</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" spans="1:6" s="53" customFormat="1">
+      <c r="A16" s="52"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="37">
+        <v>6</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="1:6" s="55" customFormat="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="37">
+        <v>7</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" s="55" customFormat="1">
+      <c r="A18" s="54"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="37">
+        <v>8</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" s="55" customFormat="1">
+      <c r="A19" s="54"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="37">
+        <v>9</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" spans="1:6" s="57" customFormat="1">
+      <c r="A20" s="56"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="37">
+        <v>10</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" s="59" customFormat="1">
+      <c r="A21" s="58">
+        <v>7</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C21" s="37">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-    </row>
-    <row r="4" spans="1:6" s="49" customFormat="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="39">
+      <c r="D21" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" s="59" customFormat="1">
+      <c r="A22" s="58"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="37">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-    </row>
-    <row r="5" spans="1:6" s="49" customFormat="1">
-      <c r="A5" s="48">
-        <v>2</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="39">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-    </row>
-    <row r="6" spans="1:6" s="49" customFormat="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="39">
-        <v>2</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-    </row>
-    <row r="7" spans="1:6" s="49" customFormat="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="39">
+      <c r="D22" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="38">
         <v>3</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-    </row>
-    <row r="8" spans="1:6" s="51" customFormat="1">
-      <c r="A8" s="50">
-        <v>3</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="39">
-        <v>1</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-    </row>
-    <row r="9" spans="1:6" s="49" customFormat="1">
-      <c r="A9" s="48">
-        <v>4</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="39">
-        <v>1</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-    </row>
-    <row r="10" spans="1:6" s="49" customFormat="1">
-      <c r="A10" s="48">
-        <v>5</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="39">
-        <v>1</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-    </row>
-    <row r="11" spans="1:6" s="53" customFormat="1">
-      <c r="A11" s="52">
-        <v>6</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-    </row>
-    <row r="12" spans="1:6" s="53" customFormat="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="39">
-        <v>2</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-    </row>
-    <row r="13" spans="1:6" s="53" customFormat="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="39">
-        <v>3</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-    </row>
-    <row r="14" spans="1:6" s="55" customFormat="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="39">
-        <v>4</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-    </row>
-    <row r="15" spans="1:6" s="55" customFormat="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="39">
-        <v>5</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-    </row>
-    <row r="16" spans="1:6" s="55" customFormat="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="39">
-        <v>6</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-    </row>
-    <row r="17" spans="1:6" s="57" customFormat="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="39">
-        <v>7</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-    </row>
-    <row r="18" spans="1:6" s="57" customFormat="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="39">
-        <v>8</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-    </row>
-    <row r="19" spans="1:6" s="57" customFormat="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="39">
-        <v>9</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-    </row>
-    <row r="20" spans="1:6" s="59" customFormat="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="39">
-        <v>10</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-    </row>
-    <row r="21" spans="1:6" s="61" customFormat="1">
-      <c r="A21" s="60">
-        <v>7</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="39">
-        <v>1</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-    </row>
-    <row r="22" spans="1:6" s="61" customFormat="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="39">
-        <v>2</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="40">
-        <v>3</v>
-      </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="D24" s="84"/>
+      <c r="D24" s="78"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="85"/>
+      <c r="B31" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2229,18 +2263,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -2256,29 +2290,22 @@
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="34">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="E5" s="3"/>
@@ -2289,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2297,11 +2324,11 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -2327,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2338,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -2347,10 +2374,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2358,45 +2385,45 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2404,21 +2431,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1">
       <c r="A13" s="14">
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Advance Training/Advance Training Schedule-  API.xlsx
+++ b/Advance Training/Advance Training Schedule-  API.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25009"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rkitsoftware-my.sharepoint.com/personal/brijesh_kamani_rkitsoftware_com/Documents/Documents/RKIT Training/Uploades/Github/brijeshkamani11/Advance Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_A65BA5EBC3D377E48165955A2BDE7B7691D72402" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BFFF76-3CCE-4933-8EC2-C0BBB52EC2E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prog. Guidline" sheetId="8" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Work Enviornent" sheetId="9" r:id="rId6"/>
     <sheet name="TFS" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
   <si>
     <t>#</t>
   </si>
@@ -418,12 +417,81 @@
   </si>
   <si>
     <t>Multiple Checkout</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>(10-12)</t>
+  </si>
+  <si>
+    <t>(12-2)</t>
+  </si>
+  <si>
+    <t>(2-3.5)</t>
+  </si>
+  <si>
+    <t>(4.5-5.5)</t>
+  </si>
+  <si>
+    <t>(5.5-6.5)</t>
+  </si>
+  <si>
+    <t>(6.5-7.5)</t>
+  </si>
+  <si>
+    <t>(7.5-8.5)</t>
+  </si>
+  <si>
+    <t>(8.5-12)</t>
+  </si>
+  <si>
+    <t>(9-10)</t>
+  </si>
+  <si>
+    <t>(10-11)</t>
+  </si>
+  <si>
+    <t>(11-12)</t>
+  </si>
+  <si>
+    <t>(12-12.5)</t>
+  </si>
+  <si>
+    <t>(12.5-2)</t>
+  </si>
+  <si>
+    <t>opening files</t>
+  </si>
+  <si>
+    <t>(2-2.5)</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Tommorw</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Topics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -615,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -843,6 +911,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -852,7 +942,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -944,7 +1034,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -984,6 +1073,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1260,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1268,15 +1363,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2" style="28" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="28" customWidth="1"/>
     <col min="3" max="3" width="9" style="28"/>
-    <col min="4" max="4" width="11.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="28" customWidth="1"/>
     <col min="6" max="6" width="9" style="28"/>
-    <col min="7" max="7" width="10.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -1323,25 +1418,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="39" customWidth="1"/>
     <col min="2" max="2" width="34" style="39" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="39"/>
+    <col min="3" max="3" width="27.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="61" customFormat="1">
+    <row r="1" spans="1:14" s="61" customFormat="1">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1352,14 +1446,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="44"/>
       <c r="B2" s="45" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="37"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:14">
       <c r="A3" s="44">
         <v>1</v>
       </c>
@@ -1370,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:14">
       <c r="A4" s="44">
         <v>2</v>
       </c>
@@ -1379,7 +1473,7 @@
       </c>
       <c r="C4" s="37"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:14">
       <c r="A5" s="44">
         <v>3</v>
       </c>
@@ -1388,7 +1482,7 @@
       </c>
       <c r="C5" s="37"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:14">
       <c r="A6" s="44">
         <v>4</v>
       </c>
@@ -1397,7 +1491,7 @@
       </c>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:14">
       <c r="A7" s="44">
         <v>5</v>
       </c>
@@ -1405,8 +1499,20 @@
         <v>11</v>
       </c>
       <c r="C7" s="37"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="K7" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="44">
         <v>6</v>
       </c>
@@ -1415,7 +1521,7 @@
       </c>
       <c r="C8" s="37"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:14">
       <c r="A9" s="44">
         <v>7</v>
       </c>
@@ -1423,8 +1529,11 @@
         <v>13</v>
       </c>
       <c r="C9" s="37"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="44">
         <v>8</v>
       </c>
@@ -1432,8 +1541,11 @@
         <v>14</v>
       </c>
       <c r="C10" s="37"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="44">
         <v>9</v>
       </c>
@@ -1441,8 +1553,11 @@
         <v>15</v>
       </c>
       <c r="C11" s="37"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="44">
         <v>10</v>
       </c>
@@ -1452,31 +1567,43 @@
       <c r="C12" s="37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="44"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6">
       <c r="A14" s="44"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="84"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="44">
         <v>11</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="84" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="37"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="44">
         <v>12</v>
       </c>
@@ -1484,8 +1611,11 @@
         <v>21</v>
       </c>
       <c r="C16" s="37"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="44">
         <v>13</v>
       </c>
@@ -1493,8 +1623,11 @@
         <v>22</v>
       </c>
       <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="62">
         <v>14</v>
       </c>
@@ -1502,22 +1635,59 @@
         <v>23</v>
       </c>
       <c r="C18" s="63"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="62"/>
       <c r="B19" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="63"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.6">
+      <c r="H19" s="71">
+        <v>1</v>
+      </c>
+      <c r="I19" s="88">
+        <v>14</v>
+      </c>
+      <c r="J19" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="89"/>
+      <c r="L19" s="71">
+        <v>2</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="N19" s="71"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="44"/>
       <c r="B20" s="45" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="37"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="H20" s="71">
+        <v>2</v>
+      </c>
+      <c r="I20" s="67">
+        <v>15</v>
+      </c>
+      <c r="J20" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="83"/>
+      <c r="L20" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="71"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="44">
         <v>15</v>
       </c>
@@ -1525,8 +1695,23 @@
         <v>26</v>
       </c>
       <c r="C21" s="37"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="H21" s="71">
+        <v>3</v>
+      </c>
+      <c r="I21" s="67"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="71"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.6">
       <c r="A22" s="44">
         <v>16</v>
       </c>
@@ -1534,8 +1719,23 @@
         <v>27</v>
       </c>
       <c r="C22" s="37"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="H22" s="71">
+        <v>4</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="71">
+        <v>1</v>
+      </c>
+      <c r="M22" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="N22" s="71"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="44">
         <v>17</v>
       </c>
@@ -1545,22 +1745,69 @@
       <c r="C23" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="H23" s="71">
+        <v>5</v>
+      </c>
+      <c r="I23" s="67"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="71">
+        <v>1</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="N23" s="71"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="44"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="H24" s="71">
+        <v>6</v>
+      </c>
+      <c r="I24" s="67"/>
+      <c r="J24" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="83"/>
+      <c r="L24" s="71">
+        <v>1</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="71"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="44"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="H25" s="71">
+        <v>7</v>
+      </c>
+      <c r="I25" s="67">
+        <v>11</v>
+      </c>
+      <c r="J25" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="83"/>
+      <c r="L25" s="71">
+        <v>1</v>
+      </c>
+      <c r="M25" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="N25" s="71"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1">
       <c r="A26" s="64">
         <v>18</v>
       </c>
@@ -1570,40 +1817,175 @@
       <c r="C26" s="38" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="H26" s="71">
+        <v>8</v>
+      </c>
+      <c r="I26" s="69">
+        <v>13</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="86"/>
+      <c r="L26" s="71">
+        <v>1</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26" s="71"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="C27" s="39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6">
-      <c r="C28" s="65" t="s">
+      <c r="H27" s="71">
+        <v>9</v>
+      </c>
+      <c r="I27" s="87">
+        <v>17</v>
+      </c>
+      <c r="J27" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="71">
+        <v>1</v>
+      </c>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.6">
+      <c r="B28" s="84"/>
+      <c r="C28" s="85" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="39" t="s">
+      <c r="H28" s="71">
+        <v>10</v>
+      </c>
+      <c r="I28" s="87">
+        <v>8</v>
+      </c>
+      <c r="J28" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="87"/>
+      <c r="L28" s="71">
+        <v>1</v>
+      </c>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="84"/>
+      <c r="C29" s="84" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="H29" s="71">
+        <v>11</v>
+      </c>
+      <c r="I29" s="87">
+        <v>7</v>
+      </c>
+      <c r="J29" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="87"/>
+      <c r="L29" s="71">
+        <v>1</v>
+      </c>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="C30" s="39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="39" t="s">
+      <c r="H30" s="71">
+        <v>12</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="71">
+        <v>1</v>
+      </c>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="84"/>
+      <c r="C31" s="84" t="s">
         <v>38</v>
       </c>
+      <c r="H31" s="71">
+        <v>13</v>
+      </c>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="C32" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="H32" s="71">
+        <v>14</v>
+      </c>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="71"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="71"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="71"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="71"/>
     </row>
   </sheetData>
+  <sortState ref="I9:O32">
+    <sortCondition ref="O9:O32"/>
+  </sortState>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1611,11 +1993,11 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -1715,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1723,28 +2105,28 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="71" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="83"/>
-      <c r="B1" s="84" t="s">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -1752,35 +2134,35 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
-      <c r="A3" s="80">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="67">
+      <c r="A6" s="66">
         <v>2</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -1788,52 +2170,52 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="37" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="37" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="37" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="37" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="67">
+      <c r="A13" s="66">
         <v>3</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="67" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -1841,24 +2223,24 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="67">
+      <c r="A16" s="66">
         <v>4</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="37" t="s">
@@ -1866,24 +2248,24 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="67">
+      <c r="A19" s="66">
         <v>5</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="67" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -1891,24 +2273,24 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="37" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="67">
+      <c r="A22" s="66">
         <v>6</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="67" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="37" t="s">
@@ -1916,15 +2298,15 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="37" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="38"/>
     </row>
   </sheetData>
@@ -1934,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1942,13 +2324,13 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="71" customWidth="1"/>
     <col min="3" max="3" width="3" style="39" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="39" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="39" customWidth="1"/>
     <col min="6" max="6" width="9" style="39"/>
   </cols>
   <sheetData>
@@ -1956,20 +2338,20 @@
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1">
       <c r="A2" s="34"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="36"/>
       <c r="E2" s="61"/>
       <c r="F2" s="61"/>
@@ -1978,7 +2360,7 @@
       <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="37">
@@ -1992,7 +2374,7 @@
     </row>
     <row r="4" spans="1:6" s="47" customFormat="1">
       <c r="A4" s="46"/>
-      <c r="B4" s="68"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="37">
         <v>2</v>
       </c>
@@ -2006,7 +2388,7 @@
       <c r="A5" s="46">
         <v>2</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="67" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="37">
@@ -2020,7 +2402,7 @@
     </row>
     <row r="6" spans="1:6" s="47" customFormat="1">
       <c r="A6" s="46"/>
-      <c r="B6" s="68"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="37">
         <v>2</v>
       </c>
@@ -2032,7 +2414,7 @@
     </row>
     <row r="7" spans="1:6" s="47" customFormat="1">
       <c r="A7" s="46"/>
-      <c r="B7" s="68"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="37">
         <v>3</v>
       </c>
@@ -2046,7 +2428,7 @@
       <c r="A8" s="48">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="37">
@@ -2062,7 +2444,7 @@
       <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="67" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="37">
@@ -2078,7 +2460,7 @@
       <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="37">
@@ -2094,7 +2476,7 @@
       <c r="A11" s="50">
         <v>6</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="37">
@@ -2108,7 +2490,7 @@
     </row>
     <row r="12" spans="1:6" s="51" customFormat="1">
       <c r="A12" s="50"/>
-      <c r="B12" s="68"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="37">
         <v>2</v>
       </c>
@@ -2120,7 +2502,7 @@
     </row>
     <row r="13" spans="1:6" s="51" customFormat="1">
       <c r="A13" s="50"/>
-      <c r="B13" s="68"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="37">
         <v>3</v>
       </c>
@@ -2132,7 +2514,7 @@
     </row>
     <row r="14" spans="1:6" s="53" customFormat="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="68"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="37">
         <v>4</v>
       </c>
@@ -2144,7 +2526,7 @@
     </row>
     <row r="15" spans="1:6" s="53" customFormat="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="68"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="37">
         <v>5</v>
       </c>
@@ -2156,7 +2538,7 @@
     </row>
     <row r="16" spans="1:6" s="53" customFormat="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="68"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="37">
         <v>6</v>
       </c>
@@ -2168,7 +2550,7 @@
     </row>
     <row r="17" spans="1:6" s="55" customFormat="1">
       <c r="A17" s="54"/>
-      <c r="B17" s="68"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="37">
         <v>7</v>
       </c>
@@ -2180,7 +2562,7 @@
     </row>
     <row r="18" spans="1:6" s="55" customFormat="1">
       <c r="A18" s="54"/>
-      <c r="B18" s="68"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="37">
         <v>8</v>
       </c>
@@ -2192,7 +2574,7 @@
     </row>
     <row r="19" spans="1:6" s="55" customFormat="1">
       <c r="A19" s="54"/>
-      <c r="B19" s="68"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="37">
         <v>9</v>
       </c>
@@ -2204,7 +2586,7 @@
     </row>
     <row r="20" spans="1:6" s="57" customFormat="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="68"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="37">
         <v>10</v>
       </c>
@@ -2218,7 +2600,7 @@
       <c r="A21" s="58">
         <v>7</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="67" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="37">
@@ -2232,7 +2614,7 @@
     </row>
     <row r="22" spans="1:6" s="59" customFormat="1">
       <c r="A22" s="58"/>
-      <c r="B22" s="68"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="37">
         <v>2</v>
       </c>
@@ -2244,17 +2626,17 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="19"/>
-      <c r="B23" s="70"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="38">
         <v>3</v>
       </c>
       <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="D24" s="78"/>
+      <c r="D24" s="77"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="79"/>
+      <c r="B31" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2263,18 +2645,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -2316,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2324,11 +2706,11 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">

--- a/Advance Training/Advance Training Schedule-  API.xlsx
+++ b/Advance Training/Advance Training Schedule-  API.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rkitsoftware-my.sharepoint.com/personal/brijesh_kamani_rkitsoftware_com/Documents/Documents/RKIT Training/Uploades/Github/brijeshkamani11/Advance Training/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_127B0DA3CC20BBA1860ED83107E72A272661C6E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{412173CF-7AE2-4C87-B4CE-50FF132532D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prog. Guidline" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Work Enviornent" sheetId="9" r:id="rId6"/>
     <sheet name="TFS" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
   <si>
     <t>#</t>
   </si>
@@ -74,6 +75,18 @@
     <t>Abstract Class</t>
   </si>
   <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Tommorw</t>
+  </si>
+  <si>
     <t>Generics</t>
   </si>
   <si>
@@ -113,46 +126,91 @@
     <t>cors</t>
   </si>
   <si>
+    <t>(10-12)</t>
+  </si>
+  <si>
     <t>Second Phase</t>
   </si>
   <si>
     <t>Security &amp; Cryptography</t>
   </si>
   <si>
+    <t>(12-2)</t>
+  </si>
+  <si>
+    <t>versoning</t>
+  </si>
+  <si>
+    <t>(2-3.5)</t>
+  </si>
+  <si>
     <t>dynamic type</t>
   </si>
   <si>
+    <t>caching</t>
+  </si>
+  <si>
+    <t>(4.5-5.5)</t>
+  </si>
+  <si>
     <t>Multithreading</t>
   </si>
   <si>
     <t>Role of process &amp; app domain</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>(5.5-6.5)</t>
+  </si>
+  <si>
     <t>Use of backgoundworker</t>
   </si>
   <si>
+    <t>(6.5-7.5)</t>
+  </si>
+  <si>
     <t>ManualResetEvent</t>
   </si>
   <si>
+    <t>(7.5-8.5)</t>
+  </si>
+  <si>
     <t>Database Management</t>
   </si>
   <si>
     <t>Database with C# app</t>
   </si>
   <si>
+    <t>(8.5-12)</t>
+  </si>
+  <si>
     <t>jwt</t>
   </si>
   <si>
-    <t>caching</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>(9-10)</t>
+  </si>
+  <si>
+    <t>(10-11)</t>
+  </si>
+  <si>
+    <t>(11-12)</t>
   </si>
   <si>
     <t>publish</t>
   </si>
   <si>
-    <t>versoning</t>
+    <t>(12-12.5)</t>
+  </si>
+  <si>
+    <t>(12.5-2)</t>
+  </si>
+  <si>
+    <t>opening files</t>
+  </si>
+  <si>
+    <t>(2-2.5)</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -417,81 +475,12 @@
   </si>
   <si>
     <t>Multiple Checkout</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>(10-12)</t>
-  </si>
-  <si>
-    <t>(12-2)</t>
-  </si>
-  <si>
-    <t>(2-3.5)</t>
-  </si>
-  <si>
-    <t>(4.5-5.5)</t>
-  </si>
-  <si>
-    <t>(5.5-6.5)</t>
-  </si>
-  <si>
-    <t>(6.5-7.5)</t>
-  </si>
-  <si>
-    <t>(7.5-8.5)</t>
-  </si>
-  <si>
-    <t>(8.5-12)</t>
-  </si>
-  <si>
-    <t>(9-10)</t>
-  </si>
-  <si>
-    <t>(10-11)</t>
-  </si>
-  <si>
-    <t>(11-12)</t>
-  </si>
-  <si>
-    <t>(12-12.5)</t>
-  </si>
-  <si>
-    <t>(12.5-2)</t>
-  </si>
-  <si>
-    <t>opening files</t>
-  </si>
-  <si>
-    <t>(2-2.5)</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>Tommorw</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Topics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -942,7 +931,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1073,10 +1062,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1355,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1363,15 +1350,15 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" style="28" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="28" customWidth="1"/>
     <col min="3" max="3" width="9" style="28"/>
-    <col min="4" max="4" width="11.109375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="28" customWidth="1"/>
     <col min="6" max="6" width="9" style="28"/>
-    <col min="7" max="7" width="10.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -1418,20 +1405,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="3" style="39" customWidth="1"/>
     <col min="2" max="2" width="34" style="39" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="39" customWidth="1"/>
     <col min="5" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
@@ -1500,16 +1487,16 @@
       </c>
       <c r="C7" s="37"/>
       <c r="K7" s="39" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1517,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="37"/>
     </row>
@@ -1526,147 +1513,130 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" s="37"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="44">
         <v>8</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" s="37"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
+      <c r="D10" s="39">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="44">
         <v>9</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="37"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="44">
         <v>10</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="44"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="15.6">
       <c r="A14" s="44"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="84"/>
+        <v>23</v>
+      </c>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="44">
         <v>11</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>20</v>
+      <c r="B15" s="39" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="37"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
+      <c r="D15" s="39">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="44">
         <v>12</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" s="37"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="44">
         <v>13</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="37"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="62">
         <v>14</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C18" s="63"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="62"/>
       <c r="B19" s="63" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C19" s="63"/>
       <c r="H19" s="71">
         <v>1</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="86">
         <v>14</v>
       </c>
-      <c r="J19" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="89"/>
+      <c r="J19" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="87"/>
       <c r="L19" s="71">
         <v>2</v>
       </c>
       <c r="M19" s="71" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="N19" s="71"/>
     </row>
     <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="44"/>
       <c r="B20" s="45" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="37"/>
       <c r="H20" s="71">
@@ -1676,14 +1646,14 @@
         <v>15</v>
       </c>
       <c r="J20" s="83" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K20" s="83"/>
       <c r="L20" s="71">
         <v>1.5</v>
       </c>
       <c r="M20" s="71" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="N20" s="71"/>
     </row>
@@ -1692,22 +1662,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21" s="37"/>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
       <c r="H21" s="71">
         <v>3</v>
       </c>
       <c r="I21" s="67"/>
       <c r="J21" s="83"/>
       <c r="K21" s="83" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L21" s="71">
         <v>1.5</v>
       </c>
       <c r="M21" s="71" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="N21" s="71"/>
     </row>
@@ -1716,7 +1689,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C22" s="37"/>
       <c r="H22" s="71">
@@ -1725,13 +1698,13 @@
       <c r="I22" s="67"/>
       <c r="J22" s="83"/>
       <c r="K22" s="45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L22" s="71">
         <v>1</v>
       </c>
       <c r="M22" s="71" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="N22" s="71"/>
     </row>
@@ -1740,10 +1713,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H23" s="71">
         <v>5</v>
@@ -1751,13 +1724,13 @@
       <c r="I23" s="67"/>
       <c r="J23" s="83"/>
       <c r="K23" s="83" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L23" s="71">
         <v>1</v>
       </c>
       <c r="M23" s="71" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="N23" s="71"/>
     </row>
@@ -1765,21 +1738,21 @@
       <c r="A24" s="44"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H24" s="71">
         <v>6</v>
       </c>
       <c r="I24" s="67"/>
       <c r="J24" s="83" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K24" s="83"/>
       <c r="L24" s="71">
         <v>1</v>
       </c>
       <c r="M24" s="71" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="N24" s="71"/>
     </row>
@@ -1787,7 +1760,7 @@
       <c r="A25" s="44"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H25" s="71">
         <v>7</v>
@@ -1796,14 +1769,14 @@
         <v>11</v>
       </c>
       <c r="J25" s="83" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K25" s="83"/>
       <c r="L25" s="71">
         <v>1</v>
       </c>
       <c r="M25" s="71" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="N25" s="71"/>
     </row>
@@ -1812,10 +1785,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H26" s="71">
         <v>8</v>
@@ -1823,91 +1796,95 @@
       <c r="I26" s="69">
         <v>13</v>
       </c>
-      <c r="J26" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="86"/>
+      <c r="J26" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="85"/>
       <c r="L26" s="71">
         <v>1</v>
       </c>
       <c r="M26" s="71" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="N26" s="71"/>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="39" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H27" s="71">
         <v>9</v>
       </c>
-      <c r="I27" s="87">
+      <c r="I27" s="71">
         <v>17</v>
       </c>
-      <c r="J27" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="87" t="s">
-        <v>29</v>
+      <c r="J27" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="L27" s="71">
         <v>1</v>
       </c>
       <c r="M27" s="71"/>
       <c r="N27" s="71" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.6">
-      <c r="B28" s="84"/>
-      <c r="C28" s="85" t="s">
-        <v>35</v>
+      <c r="C28" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0.5</v>
       </c>
       <c r="H28" s="71">
         <v>10</v>
       </c>
-      <c r="I28" s="87">
+      <c r="I28" s="71">
         <v>8</v>
       </c>
-      <c r="J28" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="87"/>
+      <c r="J28" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="71"/>
       <c r="L28" s="71">
         <v>1</v>
       </c>
       <c r="M28" s="71"/>
       <c r="N28" s="71" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84" t="s">
-        <v>36</v>
+      <c r="C29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="39">
+        <v>0.5</v>
       </c>
       <c r="H29" s="71">
         <v>11</v>
       </c>
-      <c r="I29" s="87">
+      <c r="I29" s="71">
         <v>7</v>
       </c>
-      <c r="J29" s="87" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="87"/>
+      <c r="J29" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="71"/>
       <c r="L29" s="71">
         <v>1</v>
       </c>
       <c r="M29" s="71"/>
       <c r="N29" s="71" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="C30" s="39" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H30" s="71">
         <v>12</v>
@@ -1915,20 +1892,22 @@
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
       <c r="K30" s="71" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L30" s="71">
         <v>1</v>
       </c>
       <c r="M30" s="71"/>
       <c r="N30" s="71" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="B31" s="84"/>
-      <c r="C31" s="84" t="s">
-        <v>38</v>
+      <c r="C31" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="39">
+        <v>1</v>
       </c>
       <c r="H31" s="71">
         <v>13</v>
@@ -1936,17 +1915,17 @@
       <c r="I31" s="71"/>
       <c r="J31" s="71"/>
       <c r="K31" s="71" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L31" s="71"/>
       <c r="M31" s="71"/>
       <c r="N31" s="71" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="C32" s="39" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="D32" s="71"/>
       <c r="H32" s="71">
@@ -1955,12 +1934,12 @@
       <c r="I32" s="71"/>
       <c r="J32" s="71"/>
       <c r="K32" s="71" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="L32" s="71"/>
       <c r="M32" s="71"/>
       <c r="N32" s="71" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="4:4">
@@ -1976,7 +1955,7 @@
       <c r="D36" s="71"/>
     </row>
   </sheetData>
-  <sortState ref="I9:O32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I9:O32">
     <sortCondition ref="O9:O32"/>
   </sortState>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1993,11 +1972,11 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -2011,78 +1990,78 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="39" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="39" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B3" s="39"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="39" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="39"/>
       <c r="B5" s="39" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="39"/>
       <c r="B6" s="39" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="39"/>
       <c r="B7" s="39" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="39"/>
       <c r="B8" s="39" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="39" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="39" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="39" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="37" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B12" s="39"/>
     </row>
@@ -2097,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2105,20 +2084,20 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="71" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="70" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="38.625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="82"/>
       <c r="B1" s="83" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C1" s="83" t="s">
         <v>2</v>
@@ -2127,10 +2106,10 @@
     <row r="2" spans="1:3">
       <c r="A2" s="82"/>
       <c r="B2" s="83" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1">
@@ -2138,24 +2117,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="37" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="66"/>
       <c r="B5" s="67"/>
       <c r="C5" s="37" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2163,52 +2142,52 @@
         <v>2</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="66"/>
       <c r="B7" s="67"/>
       <c r="C7" s="37" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="66"/>
       <c r="B8" s="67"/>
       <c r="C8" s="37" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="66"/>
       <c r="B9" s="67"/>
       <c r="C9" s="37" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="66"/>
       <c r="B10" s="67"/>
       <c r="C10" s="37" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="66"/>
       <c r="B11" s="67"/>
       <c r="C11" s="37" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="66"/>
       <c r="B12" s="67"/>
       <c r="C12" s="37" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2216,24 +2195,24 @@
         <v>3</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="66"/>
       <c r="B14" s="67"/>
       <c r="C14" s="37" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="66"/>
       <c r="B15" s="67"/>
       <c r="C15" s="37" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2241,24 +2220,24 @@
         <v>4</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="66"/>
       <c r="B17" s="67"/>
       <c r="C17" s="37" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="66"/>
       <c r="B18" s="67"/>
       <c r="C18" s="37" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2266,24 +2245,24 @@
         <v>5</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="66"/>
       <c r="B20" s="67"/>
       <c r="C20" s="37" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="66"/>
       <c r="B21" s="67"/>
       <c r="C21" s="37" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2291,17 +2270,17 @@
         <v>6</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="66"/>
       <c r="B23" s="67"/>
       <c r="C23" s="37" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
@@ -2316,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2324,13 +2303,13 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="71" customWidth="1"/>
     <col min="3" max="3" width="3" style="39" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="39" customWidth="1"/>
     <col min="6" max="6" width="9" style="39"/>
   </cols>
   <sheetData>
@@ -2361,13 +2340,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C3" s="37">
         <v>1</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -2379,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -2389,13 +2368,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C5" s="37">
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -2407,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -2419,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -2429,13 +2408,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C8" s="37">
         <v>1</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
@@ -2445,13 +2424,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C9" s="37">
         <v>1</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
@@ -2461,13 +2440,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C10" s="37">
         <v>1</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
@@ -2477,13 +2456,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C11" s="37">
         <v>1</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -2495,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -2507,7 +2486,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -2519,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -2531,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -2543,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -2555,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -2567,7 +2546,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -2579,7 +2558,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -2591,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
@@ -2601,13 +2580,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C21" s="37">
         <v>1</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
@@ -2619,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
@@ -2645,18 +2624,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -2676,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2698,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2706,11 +2685,11 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -2736,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2747,7 +2726,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C4" s="13"/>
     </row>
@@ -2756,10 +2735,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2767,45 +2746,45 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="13" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2813,10 +2792,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1">
@@ -2824,10 +2803,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
